--- a/biology/Zoologie/Chrysolina_cerealis/Chrysolina_cerealis.xlsx
+++ b/biology/Zoologie/Chrysolina_cerealis/Chrysolina_cerealis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina cerealis est une espèce d'insectes coléoptères de la famille des Chrysomelidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur 5,5 à 10 mm. Coloration du pronotum et des élytres variable, généralement vert métallique avec bandes bleues et rouges, reflets dorés.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lieux sablonneux secs où les adultes et les larves se nourrissent de thyms.
 </t>
@@ -575,11 +591,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymie
-Chrysolina carnifex melanaria (Suffrian, 1851)
-Chrysomela cerealis Linnaeus, 1767
-Ancien nom
-Oreina cerealis (Linnaeus, 1767)[1].</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chrysolina carnifex melanaria (Suffrian, 1851)
+Chrysomela cerealis Linnaeus, 1767</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chrysolina_cerealis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysolina_cerealis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ancien nom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Oreina cerealis (Linnaeus, 1767).</t>
         </is>
       </c>
     </row>
